--- a/myapp/files/9_MethodComparePercent/Scenario 305.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 305.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2561</v>
+        <v>13193</v>
       </c>
       <c r="F2" t="n">
-        <v>1.93391025931464</v>
+        <v>3.12868319266551</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.66666666666667</v>
+        <v>2.69058295964126</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4941</v>
+        <v>24234</v>
       </c>
       <c r="F3" t="n">
-        <v>3.73114041049341</v>
+        <v>5.74702558106996</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.66666666666667</v>
+        <v>3.58744394618834</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>8393</v>
+        <v>19538</v>
       </c>
       <c r="F4" t="n">
-        <v>6.33787926842161</v>
+        <v>4.63338226470846</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -669,10 +669,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>5.33333333333333</v>
+        <v>5.38116591928251</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>19174</v>
+        <v>36188</v>
       </c>
       <c r="F5" t="n">
-        <v>14.4790297977739</v>
+        <v>8.58188337574316</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -707,16 +707,16 @@
         <v>8.33333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>8.96860986547085</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>8.33333333333333</v>
+        <v>11.1111111111111</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>17155</v>
+        <v>47130</v>
       </c>
       <c r="F6" t="n">
-        <v>12.9544047241478</v>
+        <v>11.1767481899739</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>14.6666666666667</v>
+        <v>9.86547085201794</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>19.4444444444444</v>
+        <v>18.0555555555556</v>
       </c>
     </row>
     <row r="7">
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>108</v>
+        <v>5711</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0815549816501291</v>
+        <v>1.35434773844559</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.33333333333333</v>
+        <v>2.69058295964126</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2742</v>
+        <v>21559</v>
       </c>
       <c r="F8" t="n">
-        <v>2.0705903674505</v>
+        <v>5.11265678395177</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>2.66666666666667</v>
+        <v>4.93273542600897</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4876</v>
+        <v>21690</v>
       </c>
       <c r="F9" t="n">
-        <v>3.68205639375953</v>
+        <v>5.14372306896952</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>6.66666666666667</v>
+        <v>7.62331838565022</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>13736</v>
+        <v>30476</v>
       </c>
       <c r="F10" t="n">
-        <v>10.3725854439461</v>
+        <v>7.22729849008369</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -897,16 +897,16 @@
         <v>9.72222222222222</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>9.33333333333333</v>
+        <v>9.41704035874439</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>13.8888888888889</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>13827</v>
+        <v>24672</v>
       </c>
       <c r="F11" t="n">
-        <v>10.4413030673735</v>
+        <v>5.85089606074763</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
@@ -935,10 +935,10 @@
         <v>9.72222222222222</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J11" t="n">
-        <v>10.6666666666667</v>
+        <v>9.41704035874439</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.101261860325034</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.448430493273543</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1531</v>
+        <v>15168</v>
       </c>
       <c r="F13" t="n">
-        <v>1.15611737876248</v>
+        <v>3.59704894007053</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.66666666666667</v>
+        <v>2.69058295964126</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>11334</v>
+        <v>30919</v>
       </c>
       <c r="F14" t="n">
-        <v>8.55874224094966</v>
+        <v>7.33235470583074</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1049,10 +1049,10 @@
         <v>6.94444444444444</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>5.33333333333333</v>
+        <v>4.48430493273543</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>2204</v>
+        <v>21835</v>
       </c>
       <c r="F15" t="n">
-        <v>1.66432573663782</v>
+        <v>5.17810941498154</v>
       </c>
       <c r="G15" t="n">
         <v>16</v>
@@ -1087,10 +1087,10 @@
         <v>22.2222222222222</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>5.82959641255605</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>22557</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5.34932970339998</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.58744394618834</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>2850</v>
+        <v>4938</v>
       </c>
       <c r="F17" t="n">
-        <v>2.15214534910063</v>
+        <v>1.17103294211948</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.33333333333333</v>
+        <v>0.896860986547085</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>4498</v>
+        <v>11599</v>
       </c>
       <c r="F18" t="n">
-        <v>3.39661395798408</v>
+        <v>2.75067053374723</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.66666666666667</v>
+        <v>1.79372197309417</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4212</v>
+        <v>14489</v>
       </c>
       <c r="F19" t="n">
-        <v>3.18064428435504</v>
+        <v>3.43602598184875</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1239,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.33333333333333</v>
+        <v>2.24215246636771</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>4212</v>
+        <v>16984</v>
       </c>
       <c r="F20" t="n">
-        <v>3.18064428435504</v>
+        <v>4.02770828046927</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>6.94444444444444</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.33333333333333</v>
+        <v>4.03587443946188</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>208</v>
+        <v>10314</v>
       </c>
       <c r="F21" t="n">
-        <v>0.157068853548397</v>
+        <v>2.44593636391663</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1315,10 +1315,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.33333333333333</v>
+        <v>3.1390134529148</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1520</v>
+        <v>2883</v>
       </c>
       <c r="F22" t="n">
-        <v>1.14781085285367</v>
+        <v>0.683695417604386</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.33333333333333</v>
+        <v>0.896860986547085</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1620</v>
+        <v>5427</v>
       </c>
       <c r="F23" t="n">
-        <v>1.22332472475194</v>
+        <v>1.28699792970482</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.33333333333333</v>
+        <v>0.896860986547085</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2712</v>
+        <v>6519</v>
       </c>
       <c r="F24" t="n">
-        <v>2.04793620588102</v>
+        <v>1.54596268725737</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.66666666666667</v>
+        <v>1.34529147982063</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2922</v>
+        <v>6729</v>
       </c>
       <c r="F25" t="n">
-        <v>2.20651533686738</v>
+        <v>1.59576360217132</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.66666666666667</v>
+        <v>1.34529147982063</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>5090</v>
+        <v>6500</v>
       </c>
       <c r="F26" t="n">
-        <v>3.84365607962183</v>
+        <v>1.54145689019373</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1.79372197309417</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
